--- a/Sprint 2 G68/Product_Backlog_S2.xlsx
+++ b/Sprint 2 G68/Product_Backlog_S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariana Arias\ciclo4\proyecto\trueke_g68\Sprint 2 G68\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB74BD6-46D9-4740-BD59-15FF588F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAB2C6-BF20-462C-91DA-DB7A24566E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="2340" windowWidth="14400" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -342,13 +342,13 @@
     <t>Ventana de login para poder hacer uso de la pagina WEB.</t>
   </si>
   <si>
-    <t>Craer un componente tarjetas que pueda cargar imágenes y descripción de los articulos que se desean intercambiar por los usuarios de la apolicación.</t>
-  </si>
-  <si>
     <t>Creación de un encabezado con logo para distinguir la marca de la pagina.</t>
   </si>
   <si>
     <t>Entrega Sprint 2 (Interfaz Grafica)</t>
+  </si>
+  <si>
+    <t>Crear un componente tarjetas que pueda cargar imágenes y descripción de los articulos que se desean intercambiar por los usuarios de la aplicación.</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-240A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
-    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -949,21 +949,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,7 +983,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,6 +991,21 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,83 +1015,41 @@
   <dxfs count="177">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1109,10 +1067,43 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
@@ -1128,35 +1119,262 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF666699"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1781,737 +1999,6 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3211,6 +2698,39 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
@@ -3268,6 +2788,486 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3282,60 +3282,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="176" headerRowBorderDxfId="175" tableBorderDxfId="174" totalsRowBorderDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="112">
       <calculatedColumnFormula>Tabla1[[#This Row],[Days]]/49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="171"/>
-    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="170"/>
-    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="169"/>
-    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="168"/>
-    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="106"/>
     <tableColumn id="8" xr3:uid="{38918B64-CCE0-4636-A5E4-263FE5F24E44}" name="Release Date"/>
-    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="166"/>
-    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K30" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K30" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="160">
+    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="99">
       <calculatedColumnFormula>IF(AND(B13&lt;&gt;"",C13&lt;&gt;"",C14&lt;&gt;""),B13+C13,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="158">
+    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="97">
       <calculatedColumnFormula>IF(AND(B14&lt;&gt;"",C14&lt;&gt;""),B14+C14-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I87" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I87" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3562,18 +3562,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:26" s="63" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
@@ -3639,10 +3639,10 @@
         <f t="shared" ref="D3:D9" si="0">IF(OR(B3="",C3=""),"",B3+C3-1)</f>
         <v>44846</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="95">
         <v>3</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="95">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -3674,13 +3674,13 @@
         <f t="shared" ref="D4" si="1">IF(OR(B4="",C4=""),"",B4+C4-1)</f>
         <v>44857</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="95">
         <v>12</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="95">
         <v>12</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="96" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="79" t="s">
@@ -3695,12 +3695,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98">
+      <c r="A5" s="93">
         <f>Tabla1[[#This Row],[Days]]/49</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B8" si="2">IF(A5="","",B4+C4)</f>
+        <f t="shared" ref="B5" si="2">IF(A5="","",B4+C4)</f>
         <v>44858</v>
       </c>
       <c r="C5" s="5">
@@ -3725,12 +3725,12 @@
         <v>44871</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11"/>
       <c r="D6" s="4" t="str">
@@ -3753,7 +3753,7 @@
       <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11"/>
       <c r="D7" s="4" t="str">
@@ -3776,7 +3776,7 @@
       <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
       <c r="D8" s="4" t="str">
@@ -3796,7 +3796,7 @@
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="str">
         <f>IF(A9="","",SUMIF(J$17:J$32,A9,C$17:C$32))</f>
@@ -3817,7 +3817,7 @@
       <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -3841,19 +3841,19 @@
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="s">
@@ -4299,7 +4299,7 @@
         <f>'Product Backlog'!B12</f>
         <v>Pie de pagina</v>
       </c>
-      <c r="J23" s="104">
+      <c r="J23" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>2.0408163265306121E-2</v>
       </c>
@@ -4342,7 +4342,7 @@
         <f>'Product Backlog'!B13</f>
         <v>Barra de navegación</v>
       </c>
-      <c r="J24" s="104">
+      <c r="J24" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>2.0408163265306121E-2</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="98" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="7">
@@ -4385,7 +4385,7 @@
         <f>'Product Backlog'!B14</f>
         <v>Creación Tarjeta</v>
       </c>
-      <c r="J25" s="104">
+      <c r="J25" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>4.0816326530612242E-2</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="98" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="7">
@@ -4428,7 +4428,7 @@
         <f>'Product Backlog'!B15</f>
         <v>Edición Tarjeta</v>
       </c>
-      <c r="J26" s="104">
+      <c r="J26" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>2.0408163265306121E-2</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="A27" s="16">
         <v>2</v>
       </c>
-      <c r="B27" s="102">
+      <c r="B27" s="97">
         <f t="shared" si="8"/>
         <v>44863</v>
       </c>
@@ -4449,7 +4449,7 @@
         <f>'Product Backlog'!D16</f>
         <v>2</v>
       </c>
-      <c r="D27" s="102">
+      <c r="D27" s="97">
         <f t="shared" si="7"/>
         <v>44864</v>
       </c>
@@ -4471,7 +4471,7 @@
         <f>'Product Backlog'!B16</f>
         <v>Creación usuario</v>
       </c>
-      <c r="J27" s="104">
+      <c r="J27" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>4.0816326530612242E-2</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="A28" s="16">
         <v>2</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="97">
         <f t="shared" si="8"/>
         <v>44865</v>
       </c>
@@ -4492,7 +4492,7 @@
         <f>'Product Backlog'!D17</f>
         <v>2</v>
       </c>
-      <c r="D28" s="102">
+      <c r="D28" s="97">
         <f t="shared" si="7"/>
         <v>44866</v>
       </c>
@@ -4514,7 +4514,7 @@
         <f>'Product Backlog'!B17</f>
         <v>Inicio de Sesión</v>
       </c>
-      <c r="J28" s="104">
+      <c r="J28" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>4.0816326530612242E-2</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="A29" s="16">
         <v>2</v>
       </c>
-      <c r="B29" s="102">
+      <c r="B29" s="97">
         <f t="shared" si="8"/>
         <v>44867</v>
       </c>
@@ -4535,7 +4535,7 @@
         <f>'Product Backlog'!D18</f>
         <v>4</v>
       </c>
-      <c r="D29" s="102">
+      <c r="D29" s="97">
         <f t="shared" si="7"/>
         <v>44870</v>
       </c>
@@ -4557,7 +4557,7 @@
         <f>'Product Backlog'!B18</f>
         <v>Mostrar productos (Inicio)</v>
       </c>
-      <c r="J29" s="104">
+      <c r="J29" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>8.1632653061224483E-2</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="A30" s="16">
         <v>2</v>
       </c>
-      <c r="B30" s="102">
+      <c r="B30" s="97">
         <f t="shared" si="8"/>
         <v>44871</v>
       </c>
@@ -4578,7 +4578,7 @@
         <f>'Product Backlog'!D19</f>
         <v>1</v>
       </c>
-      <c r="D30" s="102">
+      <c r="D30" s="97">
         <f t="shared" si="7"/>
         <v>44871</v>
       </c>
@@ -4600,7 +4600,7 @@
         <f>'Product Backlog'!B19</f>
         <v>Encabezado</v>
       </c>
-      <c r="J30" s="104">
+      <c r="J30" s="99">
         <f>Tabla2[[#This Row],[Days]]/49</f>
         <v>2.0408163265306121E-2</v>
       </c>
@@ -4637,12 +4637,12 @@
       <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="66">
         <f>SUMIF('Product Backlog'!E$3:E$146,"",'Product Backlog'!D$3:D$146)-SUMIF('Product Backlog'!C$3:C$146,"Removed",'Product Backlog'!D$3:D$146)</f>
         <v>0</v>
@@ -4653,12 +4653,12 @@
       <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="66">
         <f>SUM(E17:E32)</f>
         <v>35</v>
@@ -7591,302 +7591,302 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="H3:I8 E33:F34 F5:I5 A5:D8 E4:F8 B3:D4">
-    <cfRule type="expression" dxfId="138" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="49" stopIfTrue="1">
       <formula>$G2="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I8 E33:F34 F5:I5 A5:D8 E4:F8 B3:D4">
-    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="50" stopIfTrue="1">
       <formula>$G2="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G17:G26 G32">
-    <cfRule type="expression" dxfId="136" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="51" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G17:G26 G32:I32 H23:I30">
-    <cfRule type="expression" dxfId="135" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="52" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G17:G26 G32">
-    <cfRule type="cellIs" dxfId="134" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 H3:H7 H32:I32 A32:F32 F3:F7 B17:F22 B25:B26 D25:D26 C24:C30 B23:C23 E23:F23 F24:F26 E24:E30 H23:H30">
-    <cfRule type="expression" dxfId="133" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="54" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 H3:H7 A32:F32 F3:F7 B17:F22 B25:B26 D25:D26 C24:C30 B23:C23 E23:F23 F24:F26 E24:E30">
-    <cfRule type="expression" dxfId="132" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="55" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B23 B25:B26">
-    <cfRule type="expression" dxfId="131" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="56" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B23 B25:B26">
-    <cfRule type="expression" dxfId="130" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="57" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B23 B25:B26">
-    <cfRule type="expression" dxfId="129" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="58" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B23 B25:B26">
-    <cfRule type="expression" dxfId="128" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22 D25:D26">
-    <cfRule type="expression" dxfId="127" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="60" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22 D25:D26">
-    <cfRule type="expression" dxfId="126" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="61" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I30">
-    <cfRule type="expression" dxfId="125" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="70" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="124" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="47" stopIfTrue="1">
       <formula>$G9="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="123" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="48" stopIfTrue="1">
       <formula>$G9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="122" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="45" stopIfTrue="1">
       <formula>$G8="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="121" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="46" stopIfTrue="1">
       <formula>$G8="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="120" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="43" stopIfTrue="1">
       <formula>$G10="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="119" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="44" stopIfTrue="1">
       <formula>$G10="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A26">
-    <cfRule type="expression" dxfId="118" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="41" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:K31 A27:B30 D27:D30 F27:G30">
-    <cfRule type="expression" dxfId="117" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="37" stopIfTrue="1">
       <formula>OR($G27="Planned",$G27="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A26">
-    <cfRule type="expression" dxfId="116" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="42" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:K31 A27:B30 D27:D30 F27:G30">
-    <cfRule type="expression" dxfId="115" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="38" stopIfTrue="1">
       <formula>$G27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G16">
-    <cfRule type="expression" dxfId="114" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="25" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:I14 G15:G16 H15:I21 I22">
-    <cfRule type="expression" dxfId="113" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="26" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G16">
-    <cfRule type="cellIs" dxfId="112" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:F16 C14:F14 H14:H21">
-    <cfRule type="expression" dxfId="111" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="28" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:F16 C14:F14">
-    <cfRule type="expression" dxfId="110" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="29" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="109" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="30" stopIfTrue="1">
       <formula>$G15="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="108" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="31" stopIfTrue="1">
       <formula>$G15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="107" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="32" stopIfTrue="1">
       <formula>$G15="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="106" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="33" stopIfTrue="1">
       <formula>$G15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="105" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="34" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="104" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="35" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I22">
-    <cfRule type="expression" dxfId="103" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="36" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="102" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="23" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="101" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="24" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="100" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="17" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="99" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="18" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="98" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="19" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="97" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="20" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="96" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="21" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="22" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="94" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="15" stopIfTrue="1">
       <formula>$G22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="93" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="16" stopIfTrue="1">
       <formula>OR($G22="Planned",$G22="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="11" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="12" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="13" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="14" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="7" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="8" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="9" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="10" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="3" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="4" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="5" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="6" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7911,8 +7911,8 @@
   </sheetPr>
   <dimension ref="A1:Z1053"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7929,17 +7929,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -8554,7 +8554,7 @@
       <c r="G15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="92" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="71"/>
@@ -8589,16 +8589,16 @@
       <c r="D16" s="26">
         <v>2</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="85">
         <v>2</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="85">
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="90" t="s">
         <v>66</v>
       </c>
       <c r="I16" s="71"/>
@@ -8633,16 +8633,16 @@
       <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="85">
         <v>2</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="85">
         <v>1</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="91" t="s">
         <v>67</v>
       </c>
       <c r="I17" s="71"/>
@@ -8664,7 +8664,7 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>16</v>
       </c>
@@ -8677,17 +8677,17 @@
       <c r="D18" s="26">
         <v>4</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="85">
         <v>2</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="85">
         <v>1</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="96" t="s">
-        <v>68</v>
+      <c r="H18" s="91" t="s">
+        <v>70</v>
       </c>
       <c r="I18" s="71"/>
       <c r="J18" s="38"/>
@@ -8709,7 +8709,7 @@
       <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="1:26" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="90">
+      <c r="A19" s="85">
         <v>17</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -8721,17 +8721,17 @@
       <c r="D19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="85">
         <v>2</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="85">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="96" t="s">
-        <v>69</v>
+      <c r="H19" s="91" t="s">
+        <v>68</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="38"/>
@@ -8753,14 +8753,14 @@
       <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="94"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="71"/>
       <c r="J20" s="24"/>
       <c r="K20" s="34"/>
@@ -8781,14 +8781,14 @@
       <c r="Z20" s="24"/>
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="94"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="71"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -8809,14 +8809,14 @@
       <c r="Z21" s="24"/>
     </row>
     <row r="22" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="71"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -8837,14 +8837,14 @@
       <c r="Z22" s="38"/>
     </row>
     <row r="23" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="94"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="71"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -8865,14 +8865,14 @@
       <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="94"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="71"/>
       <c r="J24" s="24"/>
       <c r="K24" s="34"/>
@@ -8893,14 +8893,14 @@
       <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="94"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="71"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -8921,14 +8921,14 @@
       <c r="Z25" s="24"/>
     </row>
     <row r="26" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="94"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="71"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -8949,14 +8949,14 @@
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="94"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="71"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -8977,14 +8977,14 @@
       <c r="Z27" s="38"/>
     </row>
     <row r="28" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="94"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="71"/>
       <c r="J28" s="24"/>
       <c r="K28" s="34"/>
@@ -9005,14 +9005,14 @@
       <c r="Z28" s="24"/>
     </row>
     <row r="29" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="94"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="71"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -9033,14 +9033,14 @@
       <c r="Z29" s="24"/>
     </row>
     <row r="30" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="94"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="71"/>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -9061,14 +9061,14 @@
       <c r="Z30" s="38"/>
     </row>
     <row r="31" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="94"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="71"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -9089,14 +9089,14 @@
       <c r="Z31" s="38"/>
     </row>
     <row r="32" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="94"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="71"/>
       <c r="J32" s="24"/>
       <c r="K32" s="34"/>
@@ -9117,14 +9117,14 @@
       <c r="Z32" s="24"/>
     </row>
     <row r="33" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="94"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="71"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -9145,14 +9145,14 @@
       <c r="Z33" s="24"/>
     </row>
     <row r="34" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="94"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="71"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -9173,14 +9173,14 @@
       <c r="Z34" s="38"/>
     </row>
     <row r="35" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="94"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="71"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
@@ -9201,14 +9201,14 @@
       <c r="Z35" s="38"/>
     </row>
     <row r="36" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="94"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="71"/>
       <c r="J36" s="24"/>
       <c r="K36" s="34"/>
@@ -9229,14 +9229,14 @@
       <c r="Z36" s="24"/>
     </row>
     <row r="37" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="94"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="71"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -9257,14 +9257,14 @@
       <c r="Z37" s="24"/>
     </row>
     <row r="38" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="94"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="71"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -9285,14 +9285,14 @@
       <c r="Z38" s="38"/>
     </row>
     <row r="39" spans="1:26" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="94"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="89"/>
       <c r="I39" s="71"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
@@ -9313,14 +9313,14 @@
       <c r="Z39" s="38"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="93"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="71"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
@@ -9341,14 +9341,14 @@
       <c r="Z40" s="24"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="92"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="94"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="89"/>
       <c r="I41" s="71"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
@@ -9369,14 +9369,14 @@
       <c r="Z41" s="24"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="26"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="94"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="89"/>
       <c r="I42" s="71"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -9397,14 +9397,14 @@
       <c r="Z42" s="24"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="94"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="89"/>
       <c r="I43" s="71"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -9425,14 +9425,14 @@
       <c r="Z43" s="24"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="92"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="87"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="94"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="89"/>
       <c r="I44" s="71"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -9453,14 +9453,14 @@
       <c r="Z44" s="24"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="92"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="94"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="89"/>
       <c r="I45" s="71"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -9481,14 +9481,14 @@
       <c r="Z45" s="24"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="92"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="94"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="89"/>
       <c r="I46" s="71"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -9509,14 +9509,14 @@
       <c r="Z46" s="24"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="92"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="94"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="71"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -9537,14 +9537,14 @@
       <c r="Z47" s="24"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="92"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="87"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="94"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="71"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
@@ -9565,14 +9565,14 @@
       <c r="Z48" s="24"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="87"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="94"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="89"/>
       <c r="I49" s="71"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
@@ -9593,14 +9593,14 @@
       <c r="Z49" s="24"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="92"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="94"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="89"/>
       <c r="I50" s="71"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
@@ -9621,14 +9621,14 @@
       <c r="Z50" s="24"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="92"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="94"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="89"/>
       <c r="I51" s="71"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
@@ -9649,14 +9649,14 @@
       <c r="Z51" s="24"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="87"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="94"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="89"/>
       <c r="I52" s="71"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
@@ -9677,14 +9677,14 @@
       <c r="Z52" s="24"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="94"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="89"/>
       <c r="I53" s="71"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
@@ -9705,14 +9705,14 @@
       <c r="Z53" s="24"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="92"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="94"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="89"/>
       <c r="I54" s="71"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
@@ -9733,14 +9733,14 @@
       <c r="Z54" s="24"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="90"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="87"/>
       <c r="D55" s="26"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="94"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="89"/>
       <c r="I55" s="71"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
@@ -9761,14 +9761,14 @@
       <c r="Z55" s="24"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="94"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="89"/>
       <c r="I56" s="71"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
@@ -9789,14 +9789,14 @@
       <c r="Z56" s="24"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="90"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="92"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="94"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="89"/>
       <c r="I57" s="71"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
@@ -9817,14 +9817,14 @@
       <c r="Z57" s="24"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="90"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="92"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="94"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="89"/>
       <c r="I58" s="71"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
@@ -9845,14 +9845,14 @@
       <c r="Z58" s="24"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="90"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="92"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="94"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="89"/>
       <c r="I59" s="71"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
@@ -9873,14 +9873,14 @@
       <c r="Z59" s="24"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="90"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="92"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="94"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="89"/>
       <c r="I60" s="71"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
@@ -9901,14 +9901,14 @@
       <c r="Z60" s="24"/>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="90"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="92"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="94"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="89"/>
       <c r="I61" s="71"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
@@ -9929,14 +9929,14 @@
       <c r="Z61" s="24"/>
     </row>
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="90"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="92"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="87"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="94"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="89"/>
       <c r="I62" s="71"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
@@ -9957,14 +9957,14 @@
       <c r="Z62" s="24"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="90"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="92"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="94"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="89"/>
       <c r="I63" s="71"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
@@ -9992,7 +9992,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="95"/>
+      <c r="H64" s="90"/>
       <c r="I64" s="71"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
@@ -10020,7 +10020,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="96"/>
+      <c r="H65" s="91"/>
       <c r="I65" s="71"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
@@ -10048,7 +10048,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="96"/>
+      <c r="H66" s="91"/>
       <c r="I66" s="71"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
@@ -10076,7 +10076,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="96"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="71"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
@@ -10104,7 +10104,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="96"/>
+      <c r="H68" s="91"/>
       <c r="I68" s="71"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -10132,7 +10132,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
-      <c r="H69" s="96"/>
+      <c r="H69" s="91"/>
       <c r="I69" s="71"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
@@ -10160,7 +10160,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
-      <c r="H70" s="96"/>
+      <c r="H70" s="91"/>
       <c r="I70" s="71"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
@@ -10188,7 +10188,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
-      <c r="H71" s="96"/>
+      <c r="H71" s="91"/>
       <c r="I71" s="71"/>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
@@ -10216,7 +10216,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
-      <c r="H72" s="96"/>
+      <c r="H72" s="91"/>
       <c r="I72" s="71"/>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
@@ -10244,7 +10244,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
-      <c r="H73" s="96"/>
+      <c r="H73" s="91"/>
       <c r="I73" s="71"/>
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
@@ -10272,7 +10272,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
-      <c r="H74" s="96"/>
+      <c r="H74" s="91"/>
       <c r="I74" s="71"/>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
@@ -10300,7 +10300,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
-      <c r="H75" s="96"/>
+      <c r="H75" s="91"/>
       <c r="I75" s="71"/>
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
@@ -10328,7 +10328,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
-      <c r="H76" s="96"/>
+      <c r="H76" s="91"/>
       <c r="I76" s="71"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
@@ -10356,7 +10356,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
-      <c r="H77" s="96"/>
+      <c r="H77" s="91"/>
       <c r="I77" s="71"/>
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
@@ -10384,7 +10384,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
-      <c r="H78" s="96"/>
+      <c r="H78" s="91"/>
       <c r="I78" s="71"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
@@ -10412,7 +10412,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
-      <c r="H79" s="96"/>
+      <c r="H79" s="91"/>
       <c r="I79" s="71"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
@@ -10440,7 +10440,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
-      <c r="H80" s="96"/>
+      <c r="H80" s="91"/>
       <c r="I80" s="71"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
@@ -10468,7 +10468,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
-      <c r="H81" s="96"/>
+      <c r="H81" s="91"/>
       <c r="I81" s="71"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
@@ -10496,7 +10496,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
-      <c r="H82" s="96"/>
+      <c r="H82" s="91"/>
       <c r="I82" s="71"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
@@ -10524,7 +10524,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
-      <c r="H83" s="96"/>
+      <c r="H83" s="91"/>
       <c r="I83" s="71"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
@@ -10552,7 +10552,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
-      <c r="H84" s="96"/>
+      <c r="H84" s="91"/>
       <c r="I84" s="71"/>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
@@ -10580,7 +10580,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
-      <c r="H85" s="96"/>
+      <c r="H85" s="91"/>
       <c r="I85" s="71"/>
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
@@ -10608,7 +10608,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
-      <c r="H86" s="96"/>
+      <c r="H86" s="91"/>
       <c r="I86" s="71"/>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
@@ -10636,7 +10636,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="96"/>
+      <c r="H87" s="91"/>
       <c r="I87" s="71"/>
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
@@ -36485,392 +36485,392 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B87">
-    <cfRule type="expression" dxfId="92" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="92" stopIfTrue="1">
       <formula>OR($G7="Planned",$G7="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B87">
-    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="93" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:H1053 H14:I14 A2:I2 H7:H13 B7:F10 A11:G87 I7:I87">
-    <cfRule type="expression" dxfId="90" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="94" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:H1053 H14:I14 A2:I2 H7:H13 B7:F10 A11:G87 I7:I87">
-    <cfRule type="expression" dxfId="89" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="95" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:H1053 H14:I14 A2:I2 H7:H13 B7:F10 A11:G87 I7:I87">
-    <cfRule type="expression" dxfId="88" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="96" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I87">
-    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="97" stopIfTrue="1">
       <formula>$C7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I87">
-    <cfRule type="expression" dxfId="86" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="98" stopIfTrue="1">
       <formula>$C7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I87">
-    <cfRule type="expression" dxfId="85" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="99" stopIfTrue="1">
       <formula>$C7="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="84" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="103" stopIfTrue="1">
       <formula>$C8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="83" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="104" stopIfTrue="1">
       <formula>$C8="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="82" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="105" stopIfTrue="1">
       <formula>$C8="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="81" stopIfTrue="1">
       <formula>OR($G6="Planned",$G6="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="82" stopIfTrue="1">
       <formula>$G6="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6 H6:I6">
-    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6 H6:I6">
-    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6 H6:I6">
-    <cfRule type="expression" dxfId="77" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="85" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="76" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="87" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="74" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="88" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="73" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="89" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="90" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="71" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="91" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="70" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="69" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:I3 B4:F5 A4:A10 H4:I5 G4:G10">
-    <cfRule type="expression" dxfId="68" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="75" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:I3 B4:F5 A4:A10 H4:I5 G4:G10">
-    <cfRule type="expression" dxfId="67" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="76" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:I3 B4:F5 A4:A10 H4:I5 G4:G10">
-    <cfRule type="expression" dxfId="66" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="expression" dxfId="65" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="78" stopIfTrue="1">
       <formula>$C3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="expression" dxfId="64" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="79" stopIfTrue="1">
       <formula>$C3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="expression" dxfId="63" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
       <formula>$C3="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="expression" dxfId="62" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="41" stopIfTrue="1">
       <formula>OR($G88="Planned",$G88="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="expression" dxfId="61" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="42" stopIfTrue="1">
       <formula>$G88="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G88 H88:I90 A89:C91 E89:G91 D89:D111">
-    <cfRule type="expression" dxfId="60" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="43" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G88 H88:I90 A89:C91 E89:G91 D89:D111">
-    <cfRule type="expression" dxfId="59" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="44" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G88 H88:I90 A89:C91 E89:G91 D89:D111">
-    <cfRule type="expression" dxfId="58" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:I90">
-    <cfRule type="expression" dxfId="57" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="46" stopIfTrue="1">
       <formula>$C88="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:I90">
-    <cfRule type="expression" dxfId="56" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
       <formula>$C88="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:I90">
-    <cfRule type="expression" dxfId="55" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
       <formula>$C88="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B95">
-    <cfRule type="expression" dxfId="54" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="33" stopIfTrue="1">
       <formula>OR($G92="Planned",$G92="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B95">
-    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
       <formula>$G92="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:C95 H92:I94 E92:G95">
-    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:C95 H92:I94 E92:G95">
-    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:C95 H92:I94 E92:G95">
-    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92:I94">
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
       <formula>$C92="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92:I94">
-    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
       <formula>$C92="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92:I94">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
       <formula>$C92="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B99">
-    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
       <formula>OR($G96="Planned",$G96="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B99">
-    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="26" stopIfTrue="1">
       <formula>$G96="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:C99 H96:I98 E96:G99">
-    <cfRule type="expression" dxfId="44" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:C99 H96:I98 E96:G99">
-    <cfRule type="expression" dxfId="43" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="28" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:C99 H96:I98 E96:G99">
-    <cfRule type="expression" dxfId="42" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I98">
-    <cfRule type="expression" dxfId="41" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="30" stopIfTrue="1">
       <formula>$C96="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I98">
-    <cfRule type="expression" dxfId="40" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
       <formula>$C96="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I98">
-    <cfRule type="expression" dxfId="39" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
       <formula>$C96="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="38" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
       <formula>OR($G100="Planned",$G100="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="37" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="18" stopIfTrue="1">
       <formula>$G100="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:C103 H100:I102 E100:G103">
-    <cfRule type="expression" dxfId="36" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="19" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:C103 H100:I102 E100:G103">
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="20" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:C103 H100:I102 E100:G103">
-    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="21" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:I102">
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="22" stopIfTrue="1">
       <formula>$C100="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:I102">
-    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
       <formula>$C100="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:I102">
-    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
       <formula>$C100="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B107">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR($G104="Planned",$G104="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B107">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>$G104="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:C107 H104:I106 E104:G107">
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:C107 H104:I106 E104:G107">
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:C107 H104:I106 E104:G107">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:I106">
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$C104="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:I106">
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>$C104="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:I106">
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>$C104="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B111">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>OR($G108="Planned",$G108="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B111">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>$G108="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:C111 H108:I110 E108:G111">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:C111 H108:I110 E108:G111">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:C111 H108:I110 E108:G111">
-    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I110">
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>$C108="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I110">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>$C108="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I110">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>$C108="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
